--- a/test1.xlsx
+++ b/test1.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="0번_시트1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="0번_시트" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1번_시트" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +418,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -462,4 +503,58 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>